--- a/PL/teams/[1] Primera entrega/[3] Tercera fase/Viabilidad/Viabilidad.xlsx
+++ b/PL/teams/[1] Primera entrega/[3] Tercera fase/Viabilidad/Viabilidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo276508_uniovi_es/Documents/4ºCurso/2ºSemestre/Proyectos/Trabajos semanales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{24585E6E-A9C9-4D19-A0D3-BECC5FB7D69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D455AD-E6EB-4A71-9B97-7D7A48A0FD36}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{24585E6E-A9C9-4D19-A0D3-BECC5FB7D69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E7B0C5-6B8F-4E4C-A22B-4AC0F6F7CAFE}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09B7B98-5E2D-4383-8D54-6A6A8CDE21B6}"/>
   </bookViews>
@@ -626,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,9 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,18 +1017,19 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,10 +1055,10 @@
       <c r="C4" s="58">
         <v>50</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
       <c r="B5" s="47" t="s">
@@ -1165,14 +1166,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11" t="s">
@@ -1349,7 +1350,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.5">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -1394,6 +1395,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4c77c7d1-2bb2-481b-aefe-101f32e9588a" xsi:nil="true"/>
@@ -1404,18 +1414,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="017522e0e390b4dcd5dea7a453392f87">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67a159c79527be19bfac14fe95fc99df" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8132143c76e717270f9d10193ef25fbb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b65e1f9a1f5ead05db23d305e45ecaf" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
     <xsd:import namespace="4c77c7d1-2bb2-481b-aefe-101f32e9588a"/>
     <xsd:element name="properties">
@@ -1433,6 +1434,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1483,6 +1485,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1603,13 +1610,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B65655-F594-44AF-A0B5-9ADCF4058552}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF06CBFB-1E53-42BD-91C8-2B1CE24C718C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B65655-F594-44AF-A0B5-9ADCF4058552}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D2BD5E7-A36D-4D5F-9C06-D31B9C3DE916}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70909375-927D-47D3-9AD1-6578F2EC7601}"/>
 </file>
--- a/PL/teams/[1] Primera entrega/[3] Tercera fase/Viabilidad/Viabilidad.xlsx
+++ b/PL/teams/[1] Primera entrega/[3] Tercera fase/Viabilidad/Viabilidad.xlsx
@@ -1415,8 +1415,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8132143c76e717270f9d10193ef25fbb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b65e1f9a1f5ead05db23d305e45ecaf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010083760B57A9050A41B8ECD167852D12BD" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eac238aecdab541038108c888c49e31e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="101eaf33-1701-464d-baef-164c6127d51f" xmlns:ns3="4c77c7d1-2bb2-481b-aefe-101f32e9588a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efe92b1ac631852ba9ae12b231089a75" ns2:_="" ns3:_="">
     <xsd:import namespace="101eaf33-1701-464d-baef-164c6127d51f"/>
     <xsd:import namespace="4c77c7d1-2bb2-481b-aefe-101f32e9588a"/>
     <xsd:element name="properties">
@@ -1435,6 +1435,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1508,6 +1510,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1618,5 +1646,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70909375-927D-47D3-9AD1-6578F2EC7601}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A5938E-2402-4675-8F25-73F90DD9196E}"/>
 </file>